--- a/data/trans_orig/P16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2FE013D-CCE8-4474-95ED-50DB289F9710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1382A92E-B9D6-4044-9CE4-2A56C8568504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F2E0701-3943-4074-B286-34DE992073E1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C414D39C-840F-4132-92ED-6B3CBD9024C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>19,88%</t>
   </si>
   <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>38,02%</t>
   </si>
   <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
   </si>
   <si>
     <t>28,7%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>80,12%</t>
   </si>
   <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
   </si>
   <si>
     <t>61,98%</t>
   </si>
   <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
   </si>
   <si>
     <t>71,3%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1459 +140,1405 @@
     <t>20,07%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
   </si>
   <si>
     <t>43,67%</t>
   </si>
   <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
     <t>39,46%</t>
   </si>
   <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
   </si>
   <si>
     <t>65,31%</t>
   </si>
   <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
+    <t>74,76%</t>
   </si>
   <si>
     <t>32,45%</t>
   </si>
   <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
   </si>
   <si>
     <t>39,89%</t>
   </si>
   <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
+    <t>44,6%</t>
   </si>
   <si>
     <t>67,55%</t>
   </si>
   <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
   </si>
   <si>
     <t>60,11%</t>
   </si>
   <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
+    <t>55,4%</t>
   </si>
   <si>
     <t>38,51%</t>
   </si>
   <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
   </si>
   <si>
     <t>49,73%</t>
   </si>
   <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
   </si>
   <si>
     <t>44,25%</t>
   </si>
   <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
+    <t>46,78%</t>
   </si>
   <si>
     <t>61,49%</t>
   </si>
   <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
   </si>
   <si>
     <t>50,27%</t>
   </si>
   <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
   </si>
   <si>
     <t>55,75%</t>
   </si>
   <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
+    <t>53,22%</t>
   </si>
   <si>
     <t>46,91%</t>
   </si>
   <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
   </si>
   <si>
     <t>60,59%</t>
   </si>
   <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
+    <t>57,24%</t>
   </si>
   <si>
     <t>53,86%</t>
   </si>
   <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
   </si>
   <si>
     <t>53,09%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
   </si>
   <si>
     <t>39,41%</t>
   </si>
   <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
+    <t>42,76%</t>
   </si>
   <si>
     <t>46,14%</t>
   </si>
   <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
   </si>
   <si>
     <t>70,12%</t>
   </si>
   <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
   </si>
   <si>
     <t>75,14%</t>
   </si>
   <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>78,02%</t>
   </si>
   <si>
     <t>72,62%</t>
   </si>
   <si>
-    <t>70,08%</t>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
   </si>
   <si>
     <t>24,86%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
+    <t>21,98%</t>
   </si>
   <si>
     <t>27,38%</t>
   </si>
   <si>
-    <t>29,92%</t>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
   </si>
   <si>
     <t>80,82%</t>
   </si>
   <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>88,76%</t>
   </si>
   <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
   </si>
   <si>
     <t>19,18%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>52,19%</t>
   </si>
   <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
   </si>
   <si>
     <t>64,7%</t>
   </si>
   <si>
-    <t>68,1%</t>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
   </si>
   <si>
     <t>58,81%</t>
   </si>
   <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
   </si>
   <si>
     <t>47,81%</t>
   </si>
   <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
-    <t>31,9%</t>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
   </si>
   <si>
     <t>41,19%</t>
   </si>
   <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
 </sst>
 </file>
@@ -2004,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1609B646-B514-41C7-BB70-4E671548AC94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F5433C-91E8-41A9-825A-A9B4B91EBF7E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3085,7 +3031,7 @@
         <v>3268</v>
       </c>
       <c r="N22" s="7">
-        <v>3307338</v>
+        <v>3307339</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -3106,7 +3052,7 @@
         <v>1878</v>
       </c>
       <c r="D23" s="7">
-        <v>1947662</v>
+        <v>1947663</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3157,7 +3103,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3187,7 +3133,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3223,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C07ED0-12CB-41A7-B787-809149093204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6F89EE-03FA-437A-979A-44B400180649}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4307,13 +4253,13 @@
         <v>4221993</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,28 +4274,28 @@
         <v>1696771</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>984</v>
       </c>
       <c r="I23" s="7">
-        <v>1058638</v>
+        <v>1058637</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>2602</v>
@@ -4358,13 +4304,13 @@
         <v>2755408</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,7 +4337,7 @@
         <v>3295</v>
       </c>
       <c r="I24" s="7">
-        <v>3555408</v>
+        <v>3555407</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4442,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021FBC90-C10A-4ABB-B408-08886B736547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53754271-DF9C-46C2-AC29-6FB36114960C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4459,7 +4405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4566,13 +4512,13 @@
         <v>93420</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>174</v>
@@ -4581,13 +4527,13 @@
         <v>171046</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>259</v>
@@ -4596,13 +4542,13 @@
         <v>264466</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4563,13 @@
         <v>326043</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>230</v>
@@ -4632,13 +4578,13 @@
         <v>224709</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>538</v>
@@ -4647,13 +4593,13 @@
         <v>550752</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4667,13 @@
         <v>192103</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>273</v>
@@ -4736,13 +4682,13 @@
         <v>267386</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>454</v>
@@ -4751,13 +4697,13 @@
         <v>459489</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4718,13 @@
         <v>398393</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>306</v>
@@ -4787,13 +4733,13 @@
         <v>296158</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>692</v>
@@ -4802,13 +4748,13 @@
         <v>694551</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4822,13 @@
         <v>244872</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>340</v>
@@ -4891,13 +4837,13 @@
         <v>341353</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>571</v>
@@ -4906,13 +4852,13 @@
         <v>586225</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4873,13 @@
         <v>424225</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -4942,13 +4888,13 @@
         <v>320033</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>732</v>
@@ -4957,13 +4903,13 @@
         <v>744258</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +4977,13 @@
         <v>333381</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H13" s="7">
         <v>366</v>
@@ -5046,13 +4992,13 @@
         <v>396181</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>330</v>
+        <v>137</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M13" s="7">
         <v>665</v>
@@ -5064,10 +5010,10 @@
         <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5028,13 @@
         <v>312667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -5097,28 +5043,28 @@
         <v>252896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>338</v>
+        <v>127</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>519</v>
       </c>
       <c r="N14" s="7">
-        <v>565563</v>
+        <v>565564</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>341</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,7 +5106,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5186,13 +5132,13 @@
         <v>311639</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>346</v>
@@ -5201,13 +5147,13 @@
         <v>395309</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M16" s="7">
         <v>623</v>
@@ -5216,13 +5162,13 @@
         <v>706949</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,13 +5183,13 @@
         <v>166279</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -5252,13 +5198,13 @@
         <v>101540</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
@@ -5267,13 +5213,13 @@
         <v>267818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,13 +5287,13 @@
         <v>514573</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>612</v>
@@ -5356,13 +5302,13 @@
         <v>727342</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>1160</v>
@@ -5371,13 +5317,13 @@
         <v>1241915</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,13 +5338,13 @@
         <v>76755</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -5407,13 +5353,13 @@
         <v>50589</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -5422,13 +5368,13 @@
         <v>127344</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5442,13 @@
         <v>1689989</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>2111</v>
@@ -5511,13 +5457,13 @@
         <v>2298617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>3732</v>
@@ -5526,13 +5472,13 @@
         <v>3988605</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5493,13 @@
         <v>1704361</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H23" s="7">
         <v>1227</v>
@@ -5562,13 +5508,13 @@
         <v>1245925</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M23" s="7">
         <v>2837</v>
@@ -5577,10 +5523,10 @@
         <v>2950287</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>150</v>
@@ -5661,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D904345B-10A9-4110-BD3B-9564C76D413E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DE254E-75C9-424D-B17D-A543EFA53273}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5678,7 +5624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5785,13 +5731,13 @@
         <v>88743</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>396</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="H4" s="7">
         <v>78</v>
@@ -5800,13 +5746,13 @@
         <v>130501</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M4" s="7">
         <v>119</v>
@@ -5815,13 +5761,13 @@
         <v>219244</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5782,13 @@
         <v>288936</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>405</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="H5" s="7">
         <v>129</v>
@@ -5851,13 +5797,13 @@
         <v>224456</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="M5" s="7">
         <v>260</v>
@@ -5866,13 +5812,13 @@
         <v>513392</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5886,13 @@
         <v>139026</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="H7" s="7">
         <v>200</v>
@@ -5955,13 +5901,13 @@
         <v>230745</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>417</v>
+        <v>189</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>419</v>
+        <v>321</v>
       </c>
       <c r="M7" s="7">
         <v>296</v>
@@ -5970,13 +5916,13 @@
         <v>369772</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>421</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +5937,13 @@
         <v>289370</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="H8" s="7">
         <v>260</v>
@@ -6006,13 +5952,13 @@
         <v>267832</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>426</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>427</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="M8" s="7">
         <v>466</v>
@@ -6021,13 +5967,13 @@
         <v>557201</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>431</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6041,13 @@
         <v>214597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>433</v>
@@ -6110,13 +6056,13 @@
         <v>290173</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>642</v>
@@ -6125,13 +6071,13 @@
         <v>504770</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6092,13 @@
         <v>342655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="H11" s="7">
         <v>413</v>
@@ -6161,13 +6107,13 @@
         <v>293303</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="M11" s="7">
         <v>750</v>
@@ -6176,13 +6122,13 @@
         <v>635957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>449</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6196,13 @@
         <v>339644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="H13" s="7">
         <v>703</v>
@@ -6265,13 +6211,13 @@
         <v>452793</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>455</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>1037</v>
@@ -6280,13 +6226,13 @@
         <v>792438</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6247,13 @@
         <v>384346</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
@@ -6316,28 +6262,28 @@
         <v>294468</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>463</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="M14" s="7">
         <v>769</v>
       </c>
       <c r="N14" s="7">
-        <v>678814</v>
+        <v>678813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,7 +6325,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6405,13 +6351,13 @@
         <v>420849</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="H16" s="7">
         <v>750</v>
@@ -6420,13 +6366,13 @@
         <v>446035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>472</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="M16" s="7">
         <v>1216</v>
@@ -6435,13 +6381,13 @@
         <v>866883</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6402,13 @@
         <v>179308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="H17" s="7">
         <v>250</v>
@@ -6471,13 +6417,13 @@
         <v>147541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>481</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
         <v>447</v>
@@ -6486,13 +6432,13 @@
         <v>326849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,16 +6503,16 @@
         <v>842</v>
       </c>
       <c r="D19" s="7">
-        <v>563896</v>
+        <v>563897</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="H19" s="7">
         <v>1503</v>
@@ -6575,13 +6521,13 @@
         <v>910686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="M19" s="7">
         <v>2345</v>
@@ -6590,13 +6536,13 @@
         <v>1474582</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,13 +6557,13 @@
         <v>133858</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="H20" s="7">
         <v>204</v>
@@ -6626,13 +6572,13 @@
         <v>115310</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="M20" s="7">
         <v>390</v>
@@ -6641,13 +6587,13 @@
         <v>249168</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,7 +6605,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6715,13 +6661,13 @@
         <v>1766755</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="H22" s="7">
         <v>3667</v>
@@ -6730,13 +6676,13 @@
         <v>2460934</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>191</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>5655</v>
@@ -6745,13 +6691,13 @@
         <v>4227689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6712,13 @@
         <v>1618473</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>1694</v>
@@ -6781,13 +6727,13 @@
         <v>1342908</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>182</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
         <v>3082</v>
@@ -6796,13 +6742,13 @@
         <v>2961381</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1382A92E-B9D6-4044-9CE4-2A56C8568504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A397013-C3F8-44AB-9A01-A7D33AF52033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C414D39C-840F-4132-92ED-6B3CBD9024C1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFE232A5-59E0-4DAE-8DB5-D7C6ADDB10F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="512">
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1269 +77,1320 @@
     <t>19,88%</t>
   </si>
   <si>
-    <t>16,43%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
   <si>
     <t>23,5%</t>
   </si>
   <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
   </si>
   <si>
     <t>76,5%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
   </si>
   <si>
     <t>36,32%</t>
   </si>
   <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
   </si>
   <si>
     <t>63,68%</t>
   </si>
   <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
   </si>
   <si>
     <t>58,69%</t>
   </si>
   <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
     <t>36,74%</t>
   </si>
   <si>
@@ -1349,9 +1400,6 @@
     <t>60,59%</t>
   </si>
   <si>
-    <t>57,24%</t>
-  </si>
-  <si>
     <t>53,86%</t>
   </si>
   <si>
@@ -1361,9 +1409,6 @@
     <t>57,11%</t>
   </si>
   <si>
-    <t>53,09%</t>
-  </si>
-  <si>
     <t>47,54%</t>
   </si>
   <si>
@@ -1373,9 +1418,6 @@
     <t>39,41%</t>
   </si>
   <si>
-    <t>42,76%</t>
-  </si>
-  <si>
     <t>46,14%</t>
   </si>
   <si>
@@ -1487,9 +1529,6 @@
     <t>16,18%</t>
   </si>
   <si>
-    <t>52,19%</t>
-  </si>
-  <si>
     <t>48,73%</t>
   </si>
   <si>
@@ -1512,9 +1551,6 @@
   </si>
   <si>
     <t>61,13%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
   </si>
   <si>
     <t>45,86%</t>
@@ -1950,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F5433C-91E8-41A9-825A-A9B4B91EBF7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732337FE-3D37-4BC8-A155-61B44041F7C6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3052,7 +3088,7 @@
         <v>1878</v>
       </c>
       <c r="D23" s="7">
-        <v>1947663</v>
+        <v>1947662</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3103,7 +3139,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3169,7 +3205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6F89EE-03FA-437A-979A-44B400180649}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E192E2C8-5767-4E68-BF29-5C838CBE243A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3636,10 +3672,10 @@
         <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3690,13 @@
         <v>427255</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>259</v>
@@ -3669,13 +3705,13 @@
         <v>278299</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>671</v>
@@ -3684,13 +3720,13 @@
         <v>705553</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3794,13 @@
         <v>291941</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>376</v>
@@ -3773,13 +3809,13 @@
         <v>426140</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>638</v>
@@ -3788,13 +3824,13 @@
         <v>718081</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3845,13 @@
         <v>322676</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -3824,13 +3860,13 @@
         <v>189082</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>448</v>
@@ -3839,13 +3875,13 @@
         <v>511758</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3949,13 @@
         <v>322327</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>340</v>
@@ -3928,13 +3964,13 @@
         <v>371726</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>635</v>
@@ -3943,13 +3979,13 @@
         <v>694054</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +4000,13 @@
         <v>106017</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -3979,13 +4015,13 @@
         <v>76074</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>163</v>
@@ -3994,13 +4030,13 @@
         <v>182090</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4104,13 @@
         <v>507910</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>658</v>
@@ -4083,13 +4119,13 @@
         <v>702421</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>1113</v>
@@ -4098,13 +4134,13 @@
         <v>1210331</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4155,13 @@
         <v>51727</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -4134,13 +4170,13 @@
         <v>40554</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>85</v>
@@ -4149,13 +4185,13 @@
         <v>92281</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4259,13 @@
         <v>1725223</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>2311</v>
@@ -4238,13 +4274,13 @@
         <v>2496770</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>3897</v>
@@ -4253,13 +4289,13 @@
         <v>4221993</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>67</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,28 +4310,28 @@
         <v>1696771</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H23" s="7">
         <v>984</v>
       </c>
       <c r="I23" s="7">
-        <v>1058637</v>
+        <v>1058638</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M23" s="7">
         <v>2602</v>
@@ -4304,7 +4340,7 @@
         <v>2755408</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>59</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>268</v>
@@ -4337,7 +4373,7 @@
         <v>3295</v>
       </c>
       <c r="I24" s="7">
-        <v>3555407</v>
+        <v>3555408</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4388,7 +4424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53754271-DF9C-46C2-AC29-6FB36114960C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC6E875-731D-4C56-BCE4-F087700260D8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4992,13 +5028,13 @@
         <v>396181</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>137</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>665</v>
@@ -5010,10 +5046,10 @@
         <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5064,13 @@
         <v>312667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -5043,28 +5079,28 @@
         <v>252896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>519</v>
       </c>
       <c r="N14" s="7">
-        <v>565564</v>
+        <v>565563</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,7 +5142,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5132,13 +5168,13 @@
         <v>311639</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>346</v>
@@ -5147,13 +5183,13 @@
         <v>395309</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>623</v>
@@ -5162,13 +5198,13 @@
         <v>706949</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5219,13 @@
         <v>166279</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -5198,13 +5234,13 @@
         <v>101540</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
@@ -5213,13 +5249,13 @@
         <v>267818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5323,13 @@
         <v>514573</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H19" s="7">
         <v>612</v>
@@ -5302,13 +5338,13 @@
         <v>727342</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>1160</v>
@@ -5317,13 +5353,13 @@
         <v>1241915</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5374,13 @@
         <v>76755</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -5353,13 +5389,13 @@
         <v>50589</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -5368,13 +5404,13 @@
         <v>127344</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5478,13 @@
         <v>1689989</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
         <v>2111</v>
@@ -5457,13 +5493,13 @@
         <v>2298617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M22" s="7">
         <v>3732</v>
@@ -5472,13 +5508,13 @@
         <v>3988605</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>384</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5529,13 @@
         <v>1704361</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H23" s="7">
         <v>1227</v>
@@ -5508,13 +5544,13 @@
         <v>1245925</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M23" s="7">
         <v>2837</v>
@@ -5523,13 +5559,13 @@
         <v>2950287</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>150</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,7 +5643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DE254E-75C9-424D-B17D-A543EFA53273}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81810E4-E5C9-4661-ADEB-905BA2EAD25A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5624,7 +5660,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5731,13 +5767,13 @@
         <v>88743</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>396</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>78</v>
@@ -5746,13 +5782,13 @@
         <v>130501</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="M4" s="7">
         <v>119</v>
@@ -5761,13 +5797,13 @@
         <v>219244</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5818,13 @@
         <v>288936</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>405</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="H5" s="7">
         <v>129</v>
@@ -5797,13 +5833,13 @@
         <v>224456</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>260</v>
@@ -5812,13 +5848,13 @@
         <v>513392</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5922,13 @@
         <v>139026</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="H7" s="7">
         <v>200</v>
@@ -5901,13 +5937,13 @@
         <v>230745</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>189</v>
+        <v>417</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="M7" s="7">
         <v>296</v>
@@ -5916,13 +5952,13 @@
         <v>369772</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>421</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5973,13 @@
         <v>289370</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="H8" s="7">
         <v>260</v>
@@ -5952,13 +5988,13 @@
         <v>267832</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>199</v>
+        <v>426</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>311</v>
+        <v>427</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="M8" s="7">
         <v>466</v>
@@ -5967,13 +6003,13 @@
         <v>557201</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>174</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6077,13 @@
         <v>214597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="H10" s="7">
         <v>433</v>
@@ -6056,13 +6092,13 @@
         <v>290173</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="M10" s="7">
         <v>642</v>
@@ -6071,13 +6107,13 @@
         <v>504770</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6128,13 @@
         <v>342655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="H11" s="7">
         <v>413</v>
@@ -6107,13 +6143,13 @@
         <v>293303</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="M11" s="7">
         <v>750</v>
@@ -6122,13 +6158,13 @@
         <v>635957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6232,13 @@
         <v>339644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>432</v>
+        <v>315</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="H13" s="7">
         <v>703</v>
@@ -6211,13 +6247,13 @@
         <v>452793</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>436</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>431</v>
       </c>
       <c r="M13" s="7">
         <v>1037</v>
@@ -6226,13 +6262,13 @@
         <v>792438</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6283,13 @@
         <v>384346</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>440</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
@@ -6262,13 +6298,13 @@
         <v>294468</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>421</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>444</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>769</v>
@@ -6277,13 +6313,13 @@
         <v>678813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6387,13 @@
         <v>420849</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>750</v>
@@ -6366,13 +6402,13 @@
         <v>446035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="M16" s="7">
         <v>1216</v>
@@ -6381,13 +6417,13 @@
         <v>866883</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6438,13 @@
         <v>179308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="H17" s="7">
         <v>250</v>
@@ -6417,10 +6453,10 @@
         <v>147541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>146</v>
@@ -6432,13 +6468,13 @@
         <v>326849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,13 +6542,13 @@
         <v>563897</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="H19" s="7">
         <v>1503</v>
@@ -6521,13 +6557,13 @@
         <v>910686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="M19" s="7">
         <v>2345</v>
@@ -6536,13 +6572,13 @@
         <v>1474582</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6593,13 @@
         <v>133858</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="H20" s="7">
         <v>204</v>
@@ -6572,13 +6608,13 @@
         <v>115310</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="M20" s="7">
         <v>390</v>
@@ -6587,13 +6623,13 @@
         <v>249168</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6697,13 @@
         <v>1766755</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="H22" s="7">
         <v>3667</v>
@@ -6676,13 +6712,13 @@
         <v>2460934</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="M22" s="7">
         <v>5655</v>
@@ -6691,13 +6727,13 @@
         <v>4227689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6748,13 @@
         <v>1618473</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>491</v>
+        <v>262</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="H23" s="7">
         <v>1694</v>
@@ -6727,13 +6763,13 @@
         <v>1342908</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="M23" s="7">
         <v>3082</v>
@@ -6742,13 +6778,13 @@
         <v>2961381</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A397013-C3F8-44AB-9A01-A7D33AF52033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD33072A-0C3E-48A5-81F5-356430D0F8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFE232A5-59E0-4DAE-8DB5-D7C6ADDB10F1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13096F2F-4A23-45D8-959A-343C50068BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="518">
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>38,02%</t>
   </si>
   <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
   </si>
   <si>
     <t>28,7%</t>
   </si>
   <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>80,12%</t>
   </si>
   <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
   </si>
   <si>
     <t>61,98%</t>
   </si>
   <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
   </si>
   <si>
     <t>71,3%</t>
   </si>
   <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>20,07%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
   </si>
   <si>
     <t>43,67%</t>
   </si>
   <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
   </si>
   <si>
     <t>79,93%</t>
   </si>
   <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
   </si>
   <si>
     <t>56,33%</t>
   </si>
   <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
   </si>
   <si>
     <t>69,08%</t>
   </si>
   <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>27,4%</t>
   </si>
   <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>45,24%</t>
   </si>
   <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
   </si>
   <si>
     <t>36,67%</t>
   </si>
   <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
   </si>
   <si>
     <t>54,76%</t>
   </si>
   <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
   </si>
   <si>
     <t>63,33%</t>
   </si>
   <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>39,74%</t>
   </si>
   <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
   </si>
   <si>
     <t>56,68%</t>
   </si>
   <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
   </si>
   <si>
     <t>48,18%</t>
   </si>
   <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
   </si>
   <si>
     <t>60,26%</t>
   </si>
   <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
   </si>
   <si>
     <t>43,32%</t>
   </si>
   <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
   </si>
   <si>
     <t>51,82%</t>
   </si>
   <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>72,9%</t>
   </si>
   <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
   </si>
   <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
   </si>
   <si>
     <t>74,01%</t>
   </si>
   <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
   </si>
   <si>
     <t>25,99%</t>
   </si>
   <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,109 +368,109 @@
     <t>83,4%</t>
   </si>
   <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
   </si>
   <si>
     <t>91,75%</t>
   </si>
   <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>88,19%</t>
   </si>
   <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>40,54%</t>
   </si>
   <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>58,58%</t>
   </si>
   <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
   </si>
   <si>
     <t>59,46%</t>
   </si>
   <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
   </si>
   <si>
     <t>41,42%</t>
   </si>
   <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -482,1099 +482,1117 @@
     <t>27,58%</t>
   </si>
   <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
   </si>
   <si>
     <t>48,51%</t>
   </si>
   <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
   </si>
   <si>
     <t>37,76%</t>
   </si>
   <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
   </si>
   <si>
     <t>72,42%</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
   </si>
   <si>
     <t>51,49%</t>
   </si>
   <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
   </si>
   <si>
     <t>62,24%</t>
   </si>
   <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
   </si>
   <si>
     <t>32,83%</t>
   </si>
   <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
   </si>
   <si>
     <t>58,45%</t>
   </si>
   <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
   </si>
   <si>
     <t>44,89%</t>
   </si>
   <si>
-    <t>42,07%</t>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
   </si>
   <si>
     <t>52,23%</t>
   </si>
   <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
   </si>
   <si>
     <t>52,19%</t>
   </si>
   <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
   </si>
   <si>
     <t>47,81%</t>
   </si>
   <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
+    <t>31,9%</t>
   </si>
   <si>
     <t>41,19%</t>
   </si>
   <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +2004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732337FE-3D37-4BC8-A155-61B44041F7C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6826551C-C18F-4749-8340-914EAC33D020}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3067,7 +3085,7 @@
         <v>3268</v>
       </c>
       <c r="N22" s="7">
-        <v>3307339</v>
+        <v>3307338</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -3169,7 +3187,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3205,7 +3223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E192E2C8-5767-4E68-BF29-5C838CBE243A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4317C5D-4B84-4771-90EF-7EA951936924}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3672,10 +3690,10 @@
         <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3708,13 @@
         <v>427255</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>259</v>
@@ -3705,13 +3723,13 @@
         <v>278299</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>671</v>
@@ -3720,13 +3738,13 @@
         <v>705553</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3812,13 @@
         <v>291941</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>376</v>
@@ -3809,13 +3827,13 @@
         <v>426140</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>638</v>
@@ -3824,13 +3842,13 @@
         <v>718081</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3863,13 @@
         <v>322676</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -3860,13 +3878,13 @@
         <v>189082</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>448</v>
@@ -3875,13 +3893,13 @@
         <v>511758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3967,13 @@
         <v>322327</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>340</v>
@@ -3964,13 +3982,13 @@
         <v>371726</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>635</v>
@@ -3979,13 +3997,13 @@
         <v>694054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4018,13 @@
         <v>106017</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -4015,13 +4033,13 @@
         <v>76074</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>163</v>
@@ -4030,13 +4048,13 @@
         <v>182090</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4122,13 @@
         <v>507910</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>658</v>
@@ -4119,13 +4137,13 @@
         <v>702421</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>1113</v>
@@ -4134,13 +4152,13 @@
         <v>1210331</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4173,13 @@
         <v>51727</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -4170,13 +4188,13 @@
         <v>40554</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>85</v>
@@ -4185,13 +4203,13 @@
         <v>92281</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4277,13 @@
         <v>1725223</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>2311</v>
@@ -4274,13 +4292,13 @@
         <v>2496770</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>3897</v>
@@ -4289,13 +4307,13 @@
         <v>4221993</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4328,13 @@
         <v>1696771</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>984</v>
@@ -4325,13 +4343,13 @@
         <v>1058638</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>2602</v>
@@ -4340,13 +4358,13 @@
         <v>2755408</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,7 +4442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC6E875-731D-4C56-BCE4-F087700260D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD3391E-E10C-4901-82C5-699A22301B0A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4441,7 +4459,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4548,13 +4566,13 @@
         <v>93420</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>174</v>
@@ -4563,13 +4581,13 @@
         <v>171046</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>259</v>
@@ -4578,13 +4596,13 @@
         <v>264466</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4617,13 @@
         <v>326043</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>230</v>
@@ -4614,13 +4632,13 @@
         <v>224709</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>538</v>
@@ -4629,13 +4647,13 @@
         <v>550752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4721,13 @@
         <v>192103</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>273</v>
@@ -4718,13 +4736,13 @@
         <v>267386</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>454</v>
@@ -4733,13 +4751,13 @@
         <v>459489</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4772,13 @@
         <v>398393</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>306</v>
@@ -4769,13 +4787,13 @@
         <v>296158</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>692</v>
@@ -4784,13 +4802,13 @@
         <v>694551</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4876,13 @@
         <v>244872</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>340</v>
@@ -4873,13 +4891,13 @@
         <v>341353</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>571</v>
@@ -4888,13 +4906,13 @@
         <v>586225</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4927,13 @@
         <v>424225</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -4924,13 +4942,13 @@
         <v>320033</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>732</v>
@@ -4939,13 +4957,13 @@
         <v>744258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5031,13 @@
         <v>333381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H13" s="7">
         <v>366</v>
@@ -5028,13 +5046,13 @@
         <v>396181</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M13" s="7">
         <v>665</v>
@@ -5046,10 +5064,10 @@
         <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5082,13 @@
         <v>312667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -5079,13 +5097,13 @@
         <v>252896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
         <v>519</v>
@@ -5097,10 +5115,10 @@
         <v>35</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5186,13 @@
         <v>311639</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H16" s="7">
         <v>346</v>
@@ -5183,13 +5201,13 @@
         <v>395309</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>623</v>
@@ -5198,13 +5216,13 @@
         <v>706949</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5237,13 @@
         <v>166279</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -5234,13 +5252,13 @@
         <v>101540</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
@@ -5249,13 +5267,13 @@
         <v>267818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,13 +5341,13 @@
         <v>514573</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H19" s="7">
         <v>612</v>
@@ -5338,13 +5356,13 @@
         <v>727342</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M19" s="7">
         <v>1160</v>
@@ -5353,13 +5371,13 @@
         <v>1241915</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,13 +5392,13 @@
         <v>76755</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -5389,13 +5407,13 @@
         <v>50589</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -5404,13 +5422,13 @@
         <v>127344</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5496,13 @@
         <v>1689989</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H22" s="7">
         <v>2111</v>
@@ -5493,13 +5511,13 @@
         <v>2298617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
         <v>3732</v>
@@ -5508,13 +5526,13 @@
         <v>3988605</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>384</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5547,13 @@
         <v>1704361</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H23" s="7">
         <v>1227</v>
@@ -5544,13 +5562,13 @@
         <v>1245925</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M23" s="7">
         <v>2837</v>
@@ -5559,13 +5577,13 @@
         <v>2950287</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>394</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,7 +5661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81810E4-E5C9-4661-ADEB-905BA2EAD25A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB4BC55-354F-49F2-8EBF-3882C4E3ADC3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6232,13 +6250,13 @@
         <v>339644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>450</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H13" s="7">
         <v>703</v>
@@ -6247,13 +6265,13 @@
         <v>452793</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>454</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="M13" s="7">
         <v>1037</v>
@@ -6262,13 +6280,13 @@
         <v>792438</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6301,13 @@
         <v>384346</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>323</v>
+        <v>459</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
@@ -6298,28 +6316,28 @@
         <v>294468</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>464</v>
       </c>
       <c r="M14" s="7">
         <v>769</v>
       </c>
       <c r="N14" s="7">
-        <v>678813</v>
+        <v>678814</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,7 +6379,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6387,13 +6405,13 @@
         <v>420849</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="H16" s="7">
         <v>750</v>
@@ -6402,13 +6420,13 @@
         <v>446035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="M16" s="7">
         <v>1216</v>
@@ -6417,13 +6435,13 @@
         <v>866883</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6456,13 @@
         <v>179308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="H17" s="7">
         <v>250</v>
@@ -6453,13 +6471,13 @@
         <v>147541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>146</v>
+        <v>481</v>
       </c>
       <c r="M17" s="7">
         <v>447</v>
@@ -6468,13 +6486,13 @@
         <v>326849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>403</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,16 +6557,16 @@
         <v>842</v>
       </c>
       <c r="D19" s="7">
-        <v>563897</v>
+        <v>563896</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="H19" s="7">
         <v>1503</v>
@@ -6557,13 +6575,13 @@
         <v>910686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="M19" s="7">
         <v>2345</v>
@@ -6572,13 +6590,13 @@
         <v>1474582</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6611,13 @@
         <v>133858</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="H20" s="7">
         <v>204</v>
@@ -6608,13 +6626,13 @@
         <v>115310</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="M20" s="7">
         <v>390</v>
@@ -6623,13 +6641,13 @@
         <v>249168</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,7 +6659,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6697,13 +6715,13 @@
         <v>1766755</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>502</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="H22" s="7">
         <v>3667</v>
@@ -6712,13 +6730,13 @@
         <v>2460934</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>499</v>
+        <v>191</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="M22" s="7">
         <v>5655</v>
@@ -6727,13 +6745,13 @@
         <v>4227689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6766,13 @@
         <v>1618473</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>262</v>
+        <v>510</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="H23" s="7">
         <v>1694</v>
@@ -6763,13 +6781,13 @@
         <v>1342908</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>508</v>
+        <v>182</v>
       </c>
       <c r="M23" s="7">
         <v>3082</v>
@@ -6778,13 +6796,13 @@
         <v>2961381</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD33072A-0C3E-48A5-81F5-356430D0F8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{925379CD-48D3-4950-BD39-1DDEF24DD9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13096F2F-4A23-45D8-959A-343C50068BBE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5A183E6D-F8E3-469B-B746-0FC2974BE3CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="577">
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>20,07%</t>
@@ -191,7 +191,7 @@
     <t>71,71%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>27,4%</t>
@@ -248,7 +248,7 @@
     <t>65,99%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>39,74%</t>
@@ -305,7 +305,7 @@
     <t>54,8%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>72,9%</t>
@@ -362,61 +362,118 @@
     <t>29,2%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
   </si>
   <si>
     <t>40,54%</t>
@@ -749,58 +806,112 @@
     <t>23,85%</t>
   </si>
   <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>50,42%</t>
@@ -1124,58 +1235,112 @@
     <t>30,93%</t>
   </si>
   <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
   </si>
   <si>
     <t>49,79%</t>
@@ -1229,370 +1394,382 @@
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
   </si>
   <si>
     <t>53,31%</t>
   </si>
   <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
   </si>
 </sst>
 </file>
@@ -2004,8 +2181,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6826551C-C18F-4749-8340-914EAC33D020}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8DF253-FAF7-4D3D-A6B6-A625A599B7F5}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2897,10 +3074,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>438</v>
+        <v>241</v>
       </c>
       <c r="D19" s="7">
-        <v>419059</v>
+        <v>231489</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2912,10 +3089,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>606</v>
+        <v>335</v>
       </c>
       <c r="I19" s="7">
-        <v>620982</v>
+        <v>309373</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2927,10 +3104,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>1044</v>
+        <v>576</v>
       </c>
       <c r="N19" s="7">
-        <v>1040041</v>
+        <v>540862</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2948,10 +3125,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D20" s="7">
-        <v>83407</v>
+        <v>61094</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2963,10 +3140,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I20" s="7">
-        <v>55860</v>
+        <v>33561</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2978,10 +3155,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="N20" s="7">
-        <v>139267</v>
+        <v>94655</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2999,10 +3176,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3014,10 +3191,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3029,10 +3206,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3046,55 +3223,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1335</v>
+        <v>197</v>
       </c>
       <c r="D22" s="7">
-        <v>1327863</v>
+        <v>187570</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>1933</v>
+        <v>271</v>
       </c>
       <c r="I22" s="7">
-        <v>1979476</v>
+        <v>311609</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>3268</v>
+        <v>468</v>
       </c>
       <c r="N22" s="7">
-        <v>3307338</v>
+        <v>499179</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,49 +3280,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1878</v>
+        <v>23</v>
       </c>
       <c r="D23" s="7">
-        <v>1947662</v>
+        <v>22313</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>1364</v>
+        <v>19</v>
       </c>
       <c r="I23" s="7">
-        <v>1399722</v>
+        <v>22299</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>3242</v>
+        <v>42</v>
       </c>
       <c r="N23" s="7">
-        <v>3347384</v>
+        <v>44612</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,63 +3331,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1335</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1327863</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1933</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1979475</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3268</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3307338</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1878</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1947662</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1364</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1399722</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3242</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3347384</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275525</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654722</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3223,8 +3556,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4317C5D-4B84-4771-90EF-7EA951936924}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804AB5C3-1EAA-499B-BAE6-85BC1B00AF4E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3240,7 +3573,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3347,13 +3680,13 @@
         <v>124982</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>200</v>
@@ -3362,13 +3695,13 @@
         <v>208253</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>319</v>
@@ -3377,13 +3710,13 @@
         <v>333235</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3731,13 @@
         <v>328123</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -3413,13 +3746,13 @@
         <v>221086</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>546</v>
@@ -3428,13 +3761,13 @@
         <v>549210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3835,13 @@
         <v>225264</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>330</v>
@@ -3517,13 +3850,13 @@
         <v>356713</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>548</v>
@@ -3532,13 +3865,13 @@
         <v>581977</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3886,13 @@
         <v>460974</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>241</v>
@@ -3568,13 +3901,13 @@
         <v>253542</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>689</v>
@@ -3583,13 +3916,13 @@
         <v>714516</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3990,13 @@
         <v>252799</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>407</v>
@@ -3672,13 +4005,13 @@
         <v>431516</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>644</v>
@@ -3687,13 +4020,13 @@
         <v>684316</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +4041,13 @@
         <v>427255</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>259</v>
@@ -3723,13 +4056,13 @@
         <v>278299</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>671</v>
@@ -3738,13 +4071,13 @@
         <v>705553</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +4145,13 @@
         <v>291941</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>376</v>
@@ -3827,13 +4160,13 @@
         <v>426140</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>638</v>
@@ -3842,13 +4175,13 @@
         <v>718081</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +4196,13 @@
         <v>322676</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -3878,13 +4211,13 @@
         <v>189082</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>448</v>
@@ -3893,13 +4226,13 @@
         <v>511758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +4300,13 @@
         <v>322327</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>340</v>
@@ -3982,13 +4315,13 @@
         <v>371726</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>635</v>
@@ -3997,13 +4330,13 @@
         <v>694054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4351,13 @@
         <v>106017</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -4033,13 +4366,13 @@
         <v>76074</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>163</v>
@@ -4048,13 +4381,13 @@
         <v>182090</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,49 +4449,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>455</v>
+        <v>248</v>
       </c>
       <c r="D19" s="7">
-        <v>507910</v>
+        <v>274386</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
-        <v>658</v>
+        <v>318</v>
       </c>
       <c r="I19" s="7">
-        <v>702421</v>
+        <v>325601</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
-        <v>1113</v>
+        <v>566</v>
       </c>
       <c r="N19" s="7">
-        <v>1210331</v>
+        <v>599987</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,49 +4500,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D20" s="7">
-        <v>51727</v>
+        <v>35400</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I20" s="7">
-        <v>40554</v>
+        <v>28395</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N20" s="7">
-        <v>92281</v>
+        <v>63795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,10 +4551,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4233,10 +4566,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4248,10 +4581,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4265,55 +4598,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1586</v>
+        <v>207</v>
       </c>
       <c r="D22" s="7">
-        <v>1725223</v>
+        <v>233524</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
-        <v>2311</v>
+        <v>340</v>
       </c>
       <c r="I22" s="7">
-        <v>2496770</v>
+        <v>376820</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
-        <v>3897</v>
+        <v>547</v>
       </c>
       <c r="N22" s="7">
-        <v>4221993</v>
+        <v>610344</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,49 +4655,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1618</v>
+        <v>15</v>
       </c>
       <c r="D23" s="7">
-        <v>1696771</v>
+        <v>16327</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
-        <v>984</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>1058638</v>
+        <v>12159</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
-        <v>2602</v>
+        <v>25</v>
       </c>
       <c r="N23" s="7">
-        <v>2755408</v>
+        <v>28486</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,63 +4706,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1586</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1725223</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2311</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2496770</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3897</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4221993</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1618</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1696771</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="7">
+        <v>984</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1058637</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2602</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2755408</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3204</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3421994</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
-        <v>3555408</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3555407</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6499</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6977401</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4442,8 +4931,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD3391E-E10C-4901-82C5-699A22301B0A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3BA76C-F2E1-474A-AAA3-FAA46986E2C1}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4459,7 +4948,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4566,13 +5055,13 @@
         <v>93420</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>174</v>
@@ -4581,13 +5070,13 @@
         <v>171046</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>259</v>
@@ -4596,13 +5085,13 @@
         <v>264466</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +5106,13 @@
         <v>326043</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>230</v>
@@ -4632,13 +5121,13 @@
         <v>224709</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>538</v>
@@ -4647,13 +5136,13 @@
         <v>550752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +5210,13 @@
         <v>192103</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>273</v>
@@ -4736,13 +5225,13 @@
         <v>267386</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>454</v>
@@ -4751,13 +5240,13 @@
         <v>459489</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +5261,13 @@
         <v>398393</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>306</v>
@@ -4787,13 +5276,13 @@
         <v>296158</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>692</v>
@@ -4802,13 +5291,13 @@
         <v>694551</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +5365,13 @@
         <v>244872</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>340</v>
@@ -4891,13 +5380,13 @@
         <v>341353</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>571</v>
@@ -4906,13 +5395,13 @@
         <v>586225</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +5416,13 @@
         <v>424225</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -4942,13 +5431,13 @@
         <v>320033</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>732</v>
@@ -4957,13 +5446,13 @@
         <v>744258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5520,13 @@
         <v>333381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>366</v>
@@ -5046,13 +5535,13 @@
         <v>396181</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>665</v>
@@ -5064,10 +5553,10 @@
         <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5571,13 @@
         <v>312667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -5097,13 +5586,13 @@
         <v>252896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>519</v>
@@ -5115,10 +5604,10 @@
         <v>35</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5675,13 @@
         <v>311639</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>346</v>
@@ -5201,13 +5690,13 @@
         <v>395309</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>623</v>
@@ -5216,13 +5705,13 @@
         <v>706949</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,13 +5726,13 @@
         <v>166279</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -5252,13 +5741,13 @@
         <v>101540</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
@@ -5267,13 +5756,13 @@
         <v>267818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,49 +5824,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>548</v>
+        <v>273</v>
       </c>
       <c r="D19" s="7">
-        <v>514573</v>
+        <v>280600</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="H19" s="7">
-        <v>612</v>
+        <v>326</v>
       </c>
       <c r="I19" s="7">
-        <v>727342</v>
+        <v>346418</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="M19" s="7">
-        <v>1160</v>
+        <v>599</v>
       </c>
       <c r="N19" s="7">
-        <v>1241915</v>
+        <v>627019</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,49 +5875,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7">
-        <v>76755</v>
+        <v>53730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="H20" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I20" s="7">
-        <v>50589</v>
+        <v>31344</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="N20" s="7">
-        <v>127344</v>
+        <v>85073</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,10 +5926,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5452,10 +5941,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5467,10 +5956,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5484,55 +5973,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1621</v>
+        <v>275</v>
       </c>
       <c r="D22" s="7">
-        <v>1689989</v>
+        <v>233973</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
-        <v>2111</v>
+        <v>286</v>
       </c>
       <c r="I22" s="7">
-        <v>2298617</v>
+        <v>380923</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
-        <v>3732</v>
+        <v>561</v>
       </c>
       <c r="N22" s="7">
-        <v>3988605</v>
+        <v>614896</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,49 +6030,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1610</v>
+        <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>1704361</v>
+        <v>23025</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
-        <v>1227</v>
+        <v>15</v>
       </c>
       <c r="I23" s="7">
-        <v>1245925</v>
+        <v>19246</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
-        <v>2837</v>
+        <v>42</v>
       </c>
       <c r="N23" s="7">
-        <v>2950287</v>
+        <v>42271</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>150</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,63 +6081,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1621</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1689989</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2111</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2298617</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3732</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3988605</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1610</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1704361</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1227</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1245925</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2837</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2950287</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5661,8 +6306,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB4BC55-354F-49F2-8EBF-3882C4E3ADC3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B982901C-C3DC-46A4-B343-1FE21031F062}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5678,7 +6323,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5782,46 +6427,46 @@
         <v>41</v>
       </c>
       <c r="D4" s="7">
-        <v>88743</v>
+        <v>99913</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="H4" s="7">
         <v>78</v>
       </c>
       <c r="I4" s="7">
-        <v>130501</v>
+        <v>117456</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="M4" s="7">
         <v>119</v>
       </c>
       <c r="N4" s="7">
-        <v>219244</v>
+        <v>217369</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,46 +6478,46 @@
         <v>131</v>
       </c>
       <c r="D5" s="7">
-        <v>288936</v>
+        <v>300074</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="H5" s="7">
         <v>129</v>
       </c>
       <c r="I5" s="7">
-        <v>224456</v>
+        <v>195744</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="M5" s="7">
         <v>260</v>
       </c>
       <c r="N5" s="7">
-        <v>513392</v>
+        <v>495818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,7 +6529,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5899,7 +6544,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5914,7 +6559,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5937,46 +6582,46 @@
         <v>96</v>
       </c>
       <c r="D7" s="7">
-        <v>139026</v>
+        <v>143654</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="H7" s="7">
         <v>200</v>
       </c>
       <c r="I7" s="7">
-        <v>230745</v>
+        <v>271992</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="M7" s="7">
         <v>296</v>
       </c>
       <c r="N7" s="7">
-        <v>369772</v>
+        <v>415646</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>422</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,46 +6633,46 @@
         <v>206</v>
       </c>
       <c r="D8" s="7">
-        <v>289370</v>
+        <v>279893</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="H8" s="7">
         <v>260</v>
       </c>
       <c r="I8" s="7">
-        <v>267832</v>
+        <v>239512</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="M8" s="7">
         <v>466</v>
       </c>
       <c r="N8" s="7">
-        <v>557201</v>
+        <v>519405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>430</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,7 +6684,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6054,7 +6699,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6069,7 +6714,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6092,46 +6737,46 @@
         <v>209</v>
       </c>
       <c r="D10" s="7">
-        <v>214597</v>
+        <v>210309</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>432</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="H10" s="7">
         <v>433</v>
       </c>
       <c r="I10" s="7">
-        <v>290173</v>
+        <v>272869</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>435</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="M10" s="7">
         <v>642</v>
       </c>
       <c r="N10" s="7">
-        <v>504770</v>
+        <v>483178</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,46 +6788,46 @@
         <v>337</v>
       </c>
       <c r="D11" s="7">
-        <v>342655</v>
+        <v>326029</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>441</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>443</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>413</v>
       </c>
       <c r="I11" s="7">
-        <v>293303</v>
+        <v>269599</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>444</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="M11" s="7">
         <v>750</v>
       </c>
       <c r="N11" s="7">
-        <v>635957</v>
+        <v>595628</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>447</v>
+        <v>492</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,7 +6839,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6209,7 +6854,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6224,7 +6869,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6247,46 +6892,46 @@
         <v>334</v>
       </c>
       <c r="D13" s="7">
-        <v>339644</v>
+        <v>327224</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>451</v>
+        <v>496</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>452</v>
+        <v>497</v>
       </c>
       <c r="H13" s="7">
         <v>703</v>
       </c>
       <c r="I13" s="7">
-        <v>452793</v>
+        <v>420183</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>453</v>
+        <v>498</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>454</v>
+        <v>499</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>455</v>
+        <v>500</v>
       </c>
       <c r="M13" s="7">
         <v>1037</v>
       </c>
       <c r="N13" s="7">
-        <v>792438</v>
+        <v>747408</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>458</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,46 +6943,46 @@
         <v>331</v>
       </c>
       <c r="D14" s="7">
-        <v>384346</v>
+        <v>560562</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
       </c>
       <c r="I14" s="7">
-        <v>294468</v>
+        <v>292698</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="M14" s="7">
         <v>769</v>
       </c>
       <c r="N14" s="7">
-        <v>678814</v>
+        <v>853259</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>466</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,7 +6994,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6364,7 +7009,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6379,7 +7024,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6402,46 +7047,46 @@
         <v>466</v>
       </c>
       <c r="D16" s="7">
-        <v>420849</v>
+        <v>397403</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="H16" s="7">
         <v>750</v>
       </c>
       <c r="I16" s="7">
-        <v>446035</v>
+        <v>409839</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="M16" s="7">
         <v>1216</v>
       </c>
       <c r="N16" s="7">
-        <v>866883</v>
+        <v>807242</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,46 +7098,46 @@
         <v>197</v>
       </c>
       <c r="D17" s="7">
-        <v>179308</v>
+        <v>163831</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>476</v>
+        <v>518</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>477</v>
+        <v>519</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>478</v>
+        <v>520</v>
       </c>
       <c r="H17" s="7">
         <v>250</v>
       </c>
       <c r="I17" s="7">
-        <v>147541</v>
+        <v>135048</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>479</v>
+        <v>521</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="M17" s="7">
         <v>447</v>
       </c>
       <c r="N17" s="7">
-        <v>326849</v>
+        <v>298879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>482</v>
+        <v>524</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>403</v>
+        <v>525</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>483</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,7 +7149,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6519,7 +7164,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6534,7 +7179,7 @@
         <v>1663</v>
       </c>
       <c r="N18" s="7">
-        <v>1193732</v>
+        <v>1106121</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6554,49 +7199,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>842</v>
+        <v>440</v>
       </c>
       <c r="D19" s="7">
-        <v>563896</v>
+        <v>282870</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>486</v>
+        <v>529</v>
       </c>
       <c r="H19" s="7">
-        <v>1503</v>
+        <v>690</v>
       </c>
       <c r="I19" s="7">
-        <v>910686</v>
+        <v>540461</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>488</v>
+        <v>531</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>489</v>
+        <v>532</v>
       </c>
       <c r="M19" s="7">
-        <v>2345</v>
+        <v>1130</v>
       </c>
       <c r="N19" s="7">
-        <v>1474582</v>
+        <v>823331</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,49 +7250,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="D20" s="7">
-        <v>133858</v>
+        <v>85295</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="H20" s="7">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="I20" s="7">
-        <v>115310</v>
+        <v>67907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="M20" s="7">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="N20" s="7">
-        <v>249168</v>
+        <v>153202</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>499</v>
+        <v>542</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>501</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,10 +7301,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6671,10 +7316,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025996</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6686,10 +7331,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2735</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1723750</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6703,55 +7348,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1988</v>
+        <v>402</v>
       </c>
       <c r="D22" s="7">
-        <v>1766755</v>
+        <v>244253</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>502</v>
+        <v>545</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="H22" s="7">
-        <v>3667</v>
+        <v>813</v>
       </c>
       <c r="I22" s="7">
-        <v>2460934</v>
+        <v>390151</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>191</v>
+        <v>549</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>506</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
-        <v>5655</v>
+        <v>1215</v>
       </c>
       <c r="N22" s="7">
-        <v>4227689</v>
+        <v>634403</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,49 +7405,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1388</v>
+        <v>56</v>
       </c>
       <c r="D23" s="7">
-        <v>1618473</v>
+        <v>38506</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="H23" s="7">
-        <v>1694</v>
+        <v>67</v>
       </c>
       <c r="I23" s="7">
-        <v>1342908</v>
+        <v>35139</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>513</v>
+        <v>556</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>514</v>
+        <v>431</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>182</v>
+        <v>557</v>
       </c>
       <c r="M23" s="7">
-        <v>3082</v>
+        <v>123</v>
       </c>
       <c r="N23" s="7">
-        <v>2961381</v>
+        <v>73646</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>517</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,63 +7456,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425290</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708049</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1988</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1705627</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3667</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2422952</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5655</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4128578</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1388</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1754190</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1694</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1235646</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3082</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2989837</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5361</v>
       </c>
-      <c r="I24" s="7">
-        <v>3803842</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3658598</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8737</v>
       </c>
-      <c r="N24" s="7">
-        <v>7189070</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7118415</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
